--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/出口交货值.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/出口交货值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,363 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>88.25667</v>
-      </c>
-      <c r="C2" t="n">
-        <v>229.63909</v>
-      </c>
-      <c r="D2" t="n">
-        <v>314.22092</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>279.14946</v>
-      </c>
-      <c r="G2" t="n">
-        <v>230.54666</v>
-      </c>
-      <c r="H2" t="n">
-        <v>33.11517</v>
-      </c>
-      <c r="I2" t="n">
-        <v>35.9523</v>
-      </c>
-      <c r="J2" t="n">
-        <v>35.16505</v>
-      </c>
-      <c r="K2" t="n">
-        <v>384.42985</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9015.69508</v>
-      </c>
-      <c r="M2" t="n">
-        <v>103.15215</v>
-      </c>
-      <c r="N2" t="n">
-        <v>290.18466</v>
-      </c>
-      <c r="O2" t="n">
-        <v>206.4487</v>
-      </c>
-      <c r="P2" t="n">
-        <v>57.2072</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.34583</v>
-      </c>
-      <c r="R2" t="n">
-        <v>780.27648</v>
-      </c>
-      <c r="S2" t="n">
-        <v>70.0111</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>116.36169</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.12489</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
-        <v>2.31251</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>48.81533</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2687.61266</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>683.28436</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>588.0955</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>54.23373</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>82.28512000000001</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>558.45397</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>90.21662000000001</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>477.94132</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>177.30292</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>6.94558</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>63.57883</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>201.19053</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>17.04427</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>21.37996</v>
-      </c>
-      <c r="AO2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>119.33251</v>
-      </c>
-      <c r="C3" t="n">
-        <v>260.02316</v>
-      </c>
-      <c r="D3" t="n">
-        <v>401.23046</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>302.04553</v>
-      </c>
-      <c r="G3" t="n">
-        <v>258.41441</v>
-      </c>
-      <c r="H3" t="n">
-        <v>29.61798</v>
-      </c>
-      <c r="I3" t="n">
-        <v>38.24047</v>
-      </c>
-      <c r="J3" t="n">
-        <v>55.4118</v>
-      </c>
-      <c r="K3" t="n">
-        <v>389.92462</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10312.71407</v>
-      </c>
-      <c r="M3" t="n">
-        <v>126.01815</v>
-      </c>
-      <c r="N3" t="n">
-        <v>313.84017</v>
-      </c>
-      <c r="O3" t="n">
-        <v>234.57755</v>
-      </c>
-      <c r="P3" t="n">
-        <v>52.3219</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.69274</v>
-      </c>
-      <c r="R3" t="n">
-        <v>792.05672</v>
-      </c>
-      <c r="S3" t="n">
-        <v>63.4292</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>120.61906</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.5337</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.04187</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.45204</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>54.14504</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3445.97781</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>746.7752</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>640.98218</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>42.86968</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>72.29062999999999</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>622.43169</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>91.12882</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>450.24552</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>221.70741</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>5.04221</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>76.47414000000001</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>228.53273</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>22.36325</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>32.92372</v>
-      </c>
-      <c r="AO3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>114.17585</v>
-      </c>
-      <c r="C4" t="n">
-        <v>311.46813</v>
-      </c>
-      <c r="D4" t="n">
-        <v>446.34111</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>362.86588</v>
-      </c>
-      <c r="G4" t="n">
-        <v>312.23786</v>
-      </c>
-      <c r="H4" t="n">
-        <v>34.11183</v>
-      </c>
-      <c r="I4" t="n">
-        <v>46.27085</v>
-      </c>
-      <c r="J4" t="n">
-        <v>60.68028</v>
-      </c>
-      <c r="K4" t="n">
-        <v>484.89035</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13018.39339</v>
-      </c>
-      <c r="M4" t="n">
-        <v>172.56747</v>
-      </c>
-      <c r="N4" t="n">
-        <v>365.60397</v>
-      </c>
-      <c r="O4" t="n">
-        <v>286.77406</v>
-      </c>
-      <c r="P4" t="n">
-        <v>64.69905</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.31277</v>
-      </c>
-      <c r="R4" t="n">
-        <v>875.7775799999999</v>
-      </c>
-      <c r="S4" t="n">
-        <v>79.46803</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>147.14105</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.65532</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.01554</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.25854</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>53.08854</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4987.45374</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>907.9598999999999</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>722.32962</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>61.81833</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>72.71963</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>702.37924</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>107.45978</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>559.06958</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>249.57462</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5.87094</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>93.43602</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>268.49392</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>23.1495</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>37.27451</v>
-      </c>
-      <c r="AO4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
